--- a/SVM for Unicorn Data/svm_classification_report_i.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_i.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.6875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.7241379310344828</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5389527458492975</v>
+        <v>0.7283653846153846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5401844532279314</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5333333333333332</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5551450465243569</v>
+        <v>0.7297745358090186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5392857142857143</v>
+        <v>0.7234811165845648</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
